--- a/result/init.xlsx
+++ b/result/init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9CC9B-2B03-4392-AA12-749CC426824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E6865D-9086-4D25-A717-8BE56D3C7D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="-2600" windowWidth="19420" windowHeight="17590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29700" yWindow="-4760" windowWidth="20330" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="2" r:id="rId1"/>
@@ -584,20 +584,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>850/1/1</t>
-    </r>
+    <t>负数的小数次幂，报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,11 +592,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000000000000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -687,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,9 +713,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -764,6 +749,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1072,13 +1063,13 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1106,7 +1097,7 @@
       <c r="F3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1120,7 +1111,7 @@
       <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1134,7 +1125,7 @@
       <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1148,16 +1139,16 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10">
         <v>3</v>
@@ -1176,12 +1167,12 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="10">
@@ -1193,10 +1184,10 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1210,7 +1201,7 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1224,7 +1215,7 @@
       <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1238,7 +1229,7 @@
       <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1255,10 +1246,10 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1283,7 +1274,7 @@
       <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1314,7 +1305,7 @@
       <c r="F17" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1339,7 +1330,7 @@
       <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1353,7 +1344,7 @@
       <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>80</v>
       </c>
       <c r="G20" t="s">
@@ -1395,12 +1386,12 @@
       <c r="C23" s="8">
         <v>1</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B24" s="9">
@@ -1409,11 +1400,11 @@
       <c r="C24" s="9">
         <v>2</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>88</v>
+      <c r="G24" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1431,7 +1422,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="9">
@@ -1440,10 +1431,10 @@
       <c r="C26" s="9">
         <v>2</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1462,7 +1453,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="8">
@@ -1471,10 +1462,10 @@
       <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1488,7 +1479,7 @@
       <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1502,7 +1493,7 @@
       <c r="C30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1516,7 +1507,7 @@
       <c r="C31" s="8">
         <v>1</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1530,7 +1521,7 @@
       <c r="C32" s="8">
         <v>1</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>80</v>
       </c>
       <c r="G32" t="s">
@@ -1547,7 +1538,7 @@
       <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1563,7 +1554,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1563,7 @@
     <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="18.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="46.33203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,7 +1579,7 @@
       <c r="D1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1603,10 +1594,10 @@
         <v>3.2</v>
       </c>
       <c r="D2" s="4">
-        <v>37957</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.79166666666666696</v>
+        <v>37641</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,10 +1610,10 @@
       <c r="C3" s="7">
         <v>-2.5</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>45262</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="25">
         <v>0</v>
       </c>
     </row>
@@ -1636,15 +1627,15 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="25">
         <v>0.1257175925925926</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="2">
@@ -1653,18 +1644,15 @@
       <c r="C5" s="7">
         <v>1.9999899999999999</v>
       </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="7">
@@ -1680,22 +1668,22 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1708,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1731,12 +1719,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="1">
@@ -1758,7 +1746,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="1">
@@ -1769,7 +1757,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="10">
@@ -1781,12 +1769,12 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="9">
@@ -1795,15 +1783,15 @@
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="9">
@@ -1812,15 +1800,15 @@
       <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="8">
@@ -1829,17 +1817,11 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>SIGN(B10)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
